--- a/Tema 1 - RN/ClassificaçãoFolhas.xlsx
+++ b/Tema 1 - RN/ClassificaçãoFolhas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\GitHub\Neural-Network---Matlab\Tema 1 - RN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D77521-3984-4CC2-B6CD-52A97E2638A7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B137115-B6FC-4E9C-B280-05EC8AE370F1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="51204" windowHeight="26760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -819,7 +819,7 @@
   <dimension ref="A1:G991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/Tema 1 - RN/ClassificaçãoFolhas.xlsx
+++ b/Tema 1 - RN/ClassificaçãoFolhas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\GitHub\Neural-Network---Matlab\Tema 1 - RN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B137115-B6FC-4E9C-B280-05EC8AE370F1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0020E2A-E95B-4C3B-B322-C71F8C07B117}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="51204" windowHeight="26760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="133">
   <si>
     <t>species</t>
   </si>
@@ -818,9 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1185,7 +1183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>49</v>
       </c>
@@ -1196,7 +1194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>50</v>
       </c>
@@ -1207,7 +1205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>54</v>
       </c>
@@ -1217,11 +1215,8 @@
       <c r="C35" t="s">
         <v>47</v>
       </c>
-      <c r="D35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>55</v>
       </c>
@@ -1232,7 +1227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>56</v>
       </c>
@@ -1243,7 +1238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>58</v>
       </c>
@@ -1254,7 +1249,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>60</v>
       </c>
@@ -1265,7 +1260,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>61</v>
       </c>
@@ -1276,7 +1271,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>63</v>
       </c>
@@ -1287,7 +1282,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>64</v>
       </c>
@@ -1298,7 +1293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>66</v>
       </c>
@@ -1309,7 +1304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>67</v>
       </c>
@@ -1320,7 +1315,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>69</v>
       </c>
@@ -1331,7 +1326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>71</v>
       </c>
@@ -1342,7 +1337,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>72</v>
       </c>
@@ -1353,7 +1348,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>73</v>
       </c>

--- a/Tema 1 - RN/ClassificaçãoFolhas.xlsx
+++ b/Tema 1 - RN/ClassificaçãoFolhas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\GitHub\Neural-Network---Matlab\Tema 1 - RN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Users\benvi\OneDrive\Documents\NetBeansProjects\9CARDSIEGE_PA\Neural-Network---Matlab\Tema 1 - RN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0020E2A-E95B-4C3B-B322-C71F8C07B117}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EF500B6A-F17B-4958-BC11-9BE9AC21E4D5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="51204" windowHeight="26760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="51210" windowHeight="26760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -528,16 +528,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperligação Visitada" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -818,17 +818,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="1"/>
+    <col min="1" max="1" width="10.75" style="1"/>
     <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -839,7 +841,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -850,7 +852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -864,7 +866,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -876,7 +878,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -888,7 +890,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -899,7 +901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -910,7 +912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>10</v>
       </c>
@@ -921,7 +923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -933,7 +935,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>14</v>
       </c>
@@ -944,7 +946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>15</v>
       </c>
@@ -955,7 +957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>17</v>
       </c>
@@ -966,7 +968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>18</v>
       </c>
@@ -977,7 +979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>20</v>
       </c>
@@ -988,7 +990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>21</v>
       </c>
@@ -999,7 +1001,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -1010,7 +1012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>25</v>
       </c>
@@ -1021,7 +1023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>26</v>
       </c>
@@ -1029,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>27</v>
       </c>
@@ -1040,7 +1042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>29</v>
       </c>
@@ -1051,7 +1053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>30</v>
       </c>
@@ -1062,7 +1064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>31</v>
       </c>
@@ -1073,7 +1075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>32</v>
       </c>
@@ -1084,7 +1086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>34</v>
       </c>
@@ -1095,7 +1097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>35</v>
       </c>
@@ -1106,7 +1108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>37</v>
       </c>
@@ -1117,7 +1119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>38</v>
       </c>
@@ -1128,7 +1130,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40</v>
       </c>
@@ -1139,7 +1141,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42</v>
       </c>
@@ -1150,7 +1152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43</v>
       </c>
@@ -1161,7 +1163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45</v>
       </c>
@@ -1172,7 +1174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>48</v>
       </c>
@@ -1183,7 +1185,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>49</v>
       </c>
@@ -1194,7 +1196,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>50</v>
       </c>
@@ -1205,7 +1207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>54</v>
       </c>
@@ -1216,7 +1218,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>55</v>
       </c>
@@ -1227,7 +1229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>56</v>
       </c>
@@ -1238,7 +1240,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>58</v>
       </c>
@@ -1249,7 +1251,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>60</v>
       </c>
@@ -1260,7 +1262,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>61</v>
       </c>
@@ -1271,7 +1273,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>63</v>
       </c>
@@ -1282,7 +1284,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>64</v>
       </c>
@@ -1293,7 +1295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>66</v>
       </c>
@@ -1304,7 +1306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>67</v>
       </c>
@@ -1315,7 +1317,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>69</v>
       </c>
@@ -1326,7 +1328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>71</v>
       </c>
@@ -1337,7 +1339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>72</v>
       </c>
@@ -1348,7 +1350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>73</v>
       </c>
@@ -1359,7 +1361,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>75</v>
       </c>
@@ -1370,7 +1372,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>76</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>78</v>
       </c>
@@ -1392,7 +1394,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>80</v>
       </c>
@@ -1403,7 +1405,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>81</v>
       </c>
@@ -1414,7 +1416,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>82</v>
       </c>
@@ -1425,7 +1427,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>83</v>
       </c>
@@ -1436,7 +1438,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>84</v>
       </c>
@@ -1447,7 +1449,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>85</v>
       </c>
@@ -1458,7 +1460,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>87</v>
       </c>
@@ -1469,7 +1471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>88</v>
       </c>
@@ -1480,7 +1482,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>92</v>
       </c>
@@ -1491,7 +1493,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>100</v>
       </c>
@@ -1502,7 +1504,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>101</v>
       </c>
@@ -1513,7 +1515,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>103</v>
       </c>
@@ -1524,7 +1526,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>106</v>
       </c>
@@ -1535,7 +1537,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>107</v>
       </c>
@@ -1546,7 +1548,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>108</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>109</v>
       </c>
@@ -1568,7 +1570,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>115</v>
       </c>
@@ -1579,7 +1581,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>116</v>
       </c>
@@ -1590,7 +1592,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>118</v>
       </c>
@@ -1601,7 +1603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>120</v>
       </c>
@@ -1612,7 +1614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>122</v>
       </c>
@@ -1623,7 +1625,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>124</v>
       </c>
@@ -1634,7 +1636,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>127</v>
       </c>
@@ -1645,7 +1647,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>129</v>
       </c>
@@ -1656,7 +1658,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>130</v>
       </c>
@@ -1667,7 +1669,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>132</v>
       </c>
@@ -1678,7 +1680,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>133</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>134</v>
       </c>
@@ -1700,7 +1702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>139</v>
       </c>
@@ -1711,7 +1713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>140</v>
       </c>
@@ -1722,7 +1724,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>142</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>143</v>
       </c>
@@ -1744,7 +1746,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>145</v>
       </c>
@@ -1755,7 +1757,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>146</v>
       </c>
@@ -1766,7 +1768,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>148</v>
       </c>
@@ -1777,7 +1779,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>149</v>
       </c>
@@ -1788,7 +1790,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>152</v>
       </c>
@@ -1799,7 +1801,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>153</v>
       </c>
@@ -1810,7 +1812,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>155</v>
       </c>
@@ -1821,7 +1823,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>160</v>
       </c>
@@ -1832,7 +1834,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>163</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>164</v>
       </c>
@@ -1854,7 +1856,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>165</v>
       </c>
@@ -1865,7 +1867,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>166</v>
       </c>
@@ -1876,7 +1878,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>167</v>
       </c>
@@ -1887,7 +1889,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>168</v>
       </c>
@@ -1898,7 +1900,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>169</v>
       </c>
@@ -1909,7 +1911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>171</v>
       </c>
@@ -1920,7 +1922,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>173</v>
       </c>
@@ -1931,7 +1933,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>175</v>
       </c>
@@ -1942,7 +1944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>178</v>
       </c>
@@ -1953,7 +1955,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>179</v>
       </c>
@@ -1964,7 +1966,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>183</v>
       </c>
@@ -1975,7 +1977,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>186</v>
       </c>
@@ -1986,7 +1988,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>188</v>
       </c>
@@ -1997,7 +1999,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>189</v>
       </c>
@@ -2008,7 +2010,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>190</v>
       </c>
@@ -2019,7 +2021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>194</v>
       </c>
@@ -2030,7 +2032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>196</v>
       </c>
@@ -2041,7 +2043,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>198</v>
       </c>
@@ -2052,7 +2054,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>199</v>
       </c>
@@ -2063,7 +2065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>201</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>202</v>
       </c>
@@ -2085,7 +2087,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>203</v>
       </c>
@@ -2096,7 +2098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>204</v>
       </c>
@@ -2107,7 +2109,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>206</v>
       </c>
@@ -2118,7 +2120,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>211</v>
       </c>
@@ -2129,7 +2131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>212</v>
       </c>
@@ -2140,7 +2142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>214</v>
       </c>
@@ -2151,7 +2153,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>215</v>
       </c>
@@ -2162,7 +2164,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>216</v>
       </c>
@@ -2173,7 +2175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>217</v>
       </c>
@@ -2184,7 +2186,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>218</v>
       </c>
@@ -2195,7 +2197,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>219</v>
       </c>
@@ -2206,7 +2208,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>224</v>
       </c>
@@ -2217,7 +2219,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>225</v>
       </c>
@@ -2228,7 +2230,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>227</v>
       </c>
@@ -2239,7 +2241,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>228</v>
       </c>
@@ -2250,7 +2252,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>231</v>
       </c>
@@ -2261,7 +2263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>233</v>
       </c>
@@ -2272,7 +2274,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>235</v>
       </c>
@@ -2283,7 +2285,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>237</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>238</v>
       </c>
@@ -2305,7 +2307,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>239</v>
       </c>
@@ -2316,7 +2318,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>240</v>
       </c>
@@ -2327,7 +2329,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>241</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>242</v>
       </c>
@@ -2349,7 +2351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>243</v>
       </c>
@@ -2360,7 +2362,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>245</v>
       </c>
@@ -2371,7 +2373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>246</v>
       </c>
@@ -2382,7 +2384,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>247</v>
       </c>
@@ -2393,7 +2395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>248</v>
       </c>
@@ -2404,7 +2406,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>249</v>
       </c>
@@ -2415,7 +2417,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>252</v>
       </c>
@@ -2426,7 +2428,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>253</v>
       </c>
@@ -2437,7 +2439,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>256</v>
       </c>
@@ -2448,7 +2450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>257</v>
       </c>
@@ -2459,7 +2461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>258</v>
       </c>
@@ -2470,7 +2472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>259</v>
       </c>
@@ -2481,7 +2483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>260</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>262</v>
       </c>
@@ -2503,7 +2505,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>263</v>
       </c>
@@ -2514,7 +2516,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>265</v>
       </c>
@@ -2525,7 +2527,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>267</v>
       </c>
@@ -2536,7 +2538,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>268</v>
       </c>
@@ -2547,7 +2549,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>269</v>
       </c>
@@ -2555,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>270</v>
       </c>
@@ -2566,7 +2568,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>273</v>
       </c>
@@ -2577,7 +2579,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>275</v>
       </c>
@@ -2588,7 +2590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>278</v>
       </c>
@@ -2599,7 +2601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>280</v>
       </c>
@@ -2610,7 +2612,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>282</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>283</v>
       </c>
@@ -2632,7 +2634,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>286</v>
       </c>
@@ -2643,7 +2645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>288</v>
       </c>
@@ -2654,7 +2656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>289</v>
       </c>
@@ -2665,7 +2667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>290</v>
       </c>
@@ -2676,7 +2678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>291</v>
       </c>
@@ -2687,7 +2689,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>294</v>
       </c>
@@ -2698,7 +2700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>298</v>
       </c>
@@ -2709,7 +2711,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>302</v>
       </c>
@@ -2720,7 +2722,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>303</v>
       </c>
@@ -2731,7 +2733,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>304</v>
       </c>
@@ -2742,7 +2744,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>306</v>
       </c>
@@ -2753,7 +2755,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>307</v>
       </c>
@@ -2764,7 +2766,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>309</v>
       </c>
@@ -2775,7 +2777,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>310</v>
       </c>
@@ -2786,7 +2788,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>311</v>
       </c>
@@ -2797,7 +2799,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>314</v>
       </c>
@@ -2808,7 +2810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>315</v>
       </c>
@@ -2819,7 +2821,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>317</v>
       </c>
@@ -2830,7 +2832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>319</v>
       </c>
@@ -2841,7 +2843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>321</v>
       </c>
@@ -2852,7 +2854,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>322</v>
       </c>
@@ -2863,7 +2865,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>323</v>
       </c>
@@ -2874,7 +2876,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>324</v>
       </c>
@@ -2885,7 +2887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>325</v>
       </c>
@@ -2896,7 +2898,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>326</v>
       </c>
@@ -2907,7 +2909,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>327</v>
       </c>
@@ -2918,7 +2920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>328</v>
       </c>
@@ -2929,7 +2931,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>329</v>
       </c>
@@ -2940,7 +2942,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>330</v>
       </c>
@@ -2951,7 +2953,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>331</v>
       </c>
@@ -2962,7 +2964,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>333</v>
       </c>
@@ -2973,7 +2975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>334</v>
       </c>
@@ -2984,7 +2986,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>335</v>
       </c>
@@ -2995,7 +2997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>336</v>
       </c>
@@ -3006,7 +3008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>338</v>
       </c>
@@ -3017,7 +3019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>339</v>
       </c>
@@ -3028,7 +3030,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>340</v>
       </c>
@@ -3039,7 +3041,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>341</v>
       </c>
@@ -3050,7 +3052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>342</v>
       </c>
@@ -3061,7 +3063,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>344</v>
       </c>
@@ -3072,7 +3074,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>345</v>
       </c>
@@ -3083,7 +3085,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>348</v>
       </c>
@@ -3094,7 +3096,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>349</v>
       </c>
@@ -3105,7 +3107,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>350</v>
       </c>
@@ -3116,7 +3118,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>354</v>
       </c>
@@ -3127,7 +3129,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>355</v>
       </c>
@@ -3138,7 +3140,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>356</v>
       </c>
@@ -3149,7 +3151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>357</v>
       </c>
@@ -3160,7 +3162,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>358</v>
       </c>
@@ -3171,7 +3173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>360</v>
       </c>
@@ -3182,7 +3184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>362</v>
       </c>
@@ -3193,7 +3195,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>363</v>
       </c>
@@ -3204,7 +3206,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>364</v>
       </c>
@@ -3215,7 +3217,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>365</v>
       </c>
@@ -3226,7 +3228,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>366</v>
       </c>
@@ -3237,7 +3239,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>367</v>
       </c>
@@ -3248,7 +3250,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>369</v>
       </c>
@@ -3259,7 +3261,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>371</v>
       </c>
@@ -3270,7 +3272,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>374</v>
       </c>
@@ -3281,7 +3283,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>375</v>
       </c>
@@ -3292,7 +3294,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>376</v>
       </c>
@@ -3303,7 +3305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>377</v>
       </c>
@@ -3314,7 +3316,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>379</v>
       </c>
@@ -3325,7 +3327,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>380</v>
       </c>
@@ -3336,7 +3338,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>382</v>
       </c>
@@ -3347,7 +3349,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>383</v>
       </c>
@@ -3358,7 +3360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>386</v>
       </c>
@@ -3369,7 +3371,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>387</v>
       </c>
@@ -3380,7 +3382,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>388</v>
       </c>
@@ -3391,7 +3393,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>389</v>
       </c>
@@ -3402,7 +3404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>390</v>
       </c>
@@ -3413,7 +3415,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>392</v>
       </c>
@@ -3424,7 +3426,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>393</v>
       </c>
@@ -3435,7 +3437,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>394</v>
       </c>
@@ -3446,7 +3448,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>396</v>
       </c>
@@ -3457,7 +3459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>397</v>
       </c>
@@ -3468,7 +3470,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>398</v>
       </c>
@@ -3479,7 +3481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>404</v>
       </c>
@@ -3490,7 +3492,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>408</v>
       </c>
@@ -3501,7 +3503,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>409</v>
       </c>
@@ -3512,7 +3514,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>410</v>
       </c>
@@ -3523,7 +3525,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>411</v>
       </c>
@@ -3534,7 +3536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>412</v>
       </c>
@@ -3545,7 +3547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>413</v>
       </c>
@@ -3556,7 +3558,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>415</v>
       </c>
@@ -3567,7 +3569,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>416</v>
       </c>
@@ -3578,7 +3580,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>417</v>
       </c>
@@ -3589,7 +3591,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>418</v>
       </c>
@@ -3600,7 +3602,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>419</v>
       </c>
@@ -3611,7 +3613,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>420</v>
       </c>
@@ -3622,7 +3624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>423</v>
       </c>
@@ -3633,7 +3635,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>425</v>
       </c>
@@ -3644,7 +3646,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>426</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>427</v>
       </c>
@@ -3666,7 +3668,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>428</v>
       </c>
@@ -3677,7 +3679,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>430</v>
       </c>
@@ -3688,7 +3690,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>431</v>
       </c>
@@ -3699,7 +3701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>433</v>
       </c>
@@ -3710,7 +3712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>435</v>
       </c>
@@ -3721,7 +3723,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>436</v>
       </c>
@@ -3732,7 +3734,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>437</v>
       </c>
@@ -3743,7 +3745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>438</v>
       </c>
@@ -3754,7 +3756,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>440</v>
       </c>
@@ -3765,7 +3767,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>443</v>
       </c>
@@ -3776,7 +3778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>444</v>
       </c>
@@ -3787,7 +3789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>445</v>
       </c>
@@ -3798,7 +3800,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>446</v>
       </c>
@@ -3809,7 +3811,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>449</v>
       </c>
@@ -3820,7 +3822,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>450</v>
       </c>
@@ -3831,7 +3833,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>451</v>
       </c>
@@ -3842,7 +3844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>452</v>
       </c>
@@ -3853,7 +3855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>454</v>
       </c>
@@ -3864,7 +3866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>455</v>
       </c>
@@ -3875,7 +3877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>456</v>
       </c>
@@ -3886,7 +3888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>458</v>
       </c>
@@ -3897,7 +3899,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>459</v>
       </c>
@@ -3908,7 +3910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>460</v>
       </c>
@@ -3919,7 +3921,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>461</v>
       </c>
@@ -3930,7 +3932,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>462</v>
       </c>
@@ -3941,7 +3943,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>463</v>
       </c>
@@ -3952,7 +3954,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>464</v>
       </c>
@@ -3963,7 +3965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>466</v>
       </c>
@@ -3974,7 +3976,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>467</v>
       </c>
@@ -3985,7 +3987,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>468</v>
       </c>
@@ -3996,7 +3998,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>469</v>
       </c>
@@ -4007,7 +4009,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>470</v>
       </c>
@@ -4018,7 +4020,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>475</v>
       </c>
@@ -4029,7 +4031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>478</v>
       </c>
@@ -4040,7 +4042,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>481</v>
       </c>
@@ -4051,7 +4053,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>482</v>
       </c>
@@ -4062,7 +4064,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>485</v>
       </c>
@@ -4073,7 +4075,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>487</v>
       </c>
@@ -4084,7 +4086,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>488</v>
       </c>
@@ -4095,7 +4097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>489</v>
       </c>
@@ -4106,7 +4108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>490</v>
       </c>
@@ -4117,7 +4119,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>491</v>
       </c>
@@ -4128,7 +4130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>492</v>
       </c>
@@ -4139,7 +4141,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>493</v>
       </c>
@@ -4150,7 +4152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>494</v>
       </c>
@@ -4161,7 +4163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>496</v>
       </c>
@@ -4172,7 +4174,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>497</v>
       </c>
@@ -4183,7 +4185,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>498</v>
       </c>
@@ -4194,7 +4196,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>499</v>
       </c>
@@ -4205,7 +4207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>501</v>
       </c>
@@ -4216,7 +4218,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>502</v>
       </c>
@@ -4227,7 +4229,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>505</v>
       </c>
@@ -4238,7 +4240,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>506</v>
       </c>
@@ -4249,7 +4251,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>508</v>
       </c>
@@ -4260,7 +4262,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>510</v>
       </c>
@@ -4271,7 +4273,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>511</v>
       </c>
@@ -4282,7 +4284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>513</v>
       </c>
@@ -4293,7 +4295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>514</v>
       </c>
@@ -4304,7 +4306,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>516</v>
       </c>
@@ -4315,7 +4317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>517</v>
       </c>
@@ -4326,7 +4328,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>519</v>
       </c>
@@ -4337,7 +4339,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>520</v>
       </c>
@@ -4345,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>521</v>
       </c>
@@ -4356,7 +4358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>522</v>
       </c>
@@ -4367,7 +4369,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>523</v>
       </c>
@@ -4378,7 +4380,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>524</v>
       </c>
@@ -4389,7 +4391,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>528</v>
       </c>
@@ -4400,7 +4402,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>530</v>
       </c>
@@ -4411,7 +4413,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>532</v>
       </c>
@@ -4422,7 +4424,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>535</v>
       </c>
@@ -4433,7 +4435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>538</v>
       </c>
@@ -4444,7 +4446,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>539</v>
       </c>
@@ -4455,7 +4457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>542</v>
       </c>
@@ -4466,7 +4468,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>543</v>
       </c>
@@ -4477,7 +4479,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>545</v>
       </c>
@@ -4488,7 +4490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>547</v>
       </c>
@@ -4499,7 +4501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>548</v>
       </c>
@@ -4510,7 +4512,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>550</v>
       </c>
@@ -4521,7 +4523,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>551</v>
       </c>
@@ -4532,7 +4534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>552</v>
       </c>
@@ -4543,7 +4545,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>553</v>
       </c>
@@ -4554,7 +4556,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>556</v>
       </c>
@@ -4565,7 +4567,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>558</v>
       </c>
@@ -4576,7 +4578,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>559</v>
       </c>
@@ -4587,7 +4589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>561</v>
       </c>
@@ -4598,7 +4600,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>562</v>
       </c>
@@ -4609,7 +4611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>563</v>
       </c>
@@ -4620,7 +4622,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>564</v>
       </c>
@@ -4631,7 +4633,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>566</v>
       </c>
@@ -4642,7 +4644,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>568</v>
       </c>
@@ -4653,7 +4655,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>569</v>
       </c>
@@ -4664,7 +4666,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>570</v>
       </c>
@@ -4675,7 +4677,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>571</v>
       </c>
@@ -4686,7 +4688,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>572</v>
       </c>
@@ -4697,7 +4699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>573</v>
       </c>
@@ -4708,7 +4710,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>576</v>
       </c>
@@ -4719,7 +4721,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>581</v>
       </c>
@@ -4730,7 +4732,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>582</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>585</v>
       </c>
@@ -4752,7 +4754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>588</v>
       </c>
@@ -4763,7 +4765,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>589</v>
       </c>
@@ -4774,7 +4776,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>592</v>
       </c>
@@ -4785,7 +4787,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>593</v>
       </c>
@@ -4796,7 +4798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>595</v>
       </c>
@@ -4807,7 +4809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>596</v>
       </c>
@@ -4818,7 +4820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>597</v>
       </c>
@@ -4829,7 +4831,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>598</v>
       </c>
@@ -4840,7 +4842,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>600</v>
       </c>
@@ -4851,7 +4853,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>601</v>
       </c>
@@ -4862,7 +4864,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>603</v>
       </c>
@@ -4873,7 +4875,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>605</v>
       </c>
@@ -4884,7 +4886,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>606</v>
       </c>
@@ -4895,7 +4897,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>609</v>
       </c>
@@ -4903,7 +4905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>610</v>
       </c>
@@ -4914,7 +4916,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>614</v>
       </c>
@@ -4925,7 +4927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>615</v>
       </c>
@@ -4936,7 +4938,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>616</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>618</v>
       </c>
@@ -4958,7 +4960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>619</v>
       </c>
@@ -4969,7 +4971,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>620</v>
       </c>
@@ -4980,7 +4982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>621</v>
       </c>
@@ -4991,7 +4993,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>622</v>
       </c>
@@ -5002,7 +5004,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>623</v>
       </c>
@@ -5013,7 +5015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>628</v>
       </c>
@@ -5024,7 +5026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>629</v>
       </c>
@@ -5035,7 +5037,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>630</v>
       </c>
@@ -5046,7 +5048,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>631</v>
       </c>
@@ -5057,7 +5059,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>632</v>
       </c>
@@ -5068,7 +5070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>633</v>
       </c>
@@ -5079,7 +5081,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>634</v>
       </c>
@@ -5090,7 +5092,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>635</v>
       </c>
@@ -5101,7 +5103,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>636</v>
       </c>
@@ -5112,7 +5114,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>637</v>
       </c>
@@ -5123,7 +5125,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>641</v>
       </c>
@@ -5134,7 +5136,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>642</v>
       </c>
@@ -5145,7 +5147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>645</v>
       </c>
@@ -5156,7 +5158,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>646</v>
       </c>
@@ -5167,7 +5169,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>647</v>
       </c>
@@ -5178,7 +5180,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>649</v>
       </c>
@@ -5189,7 +5191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>651</v>
       </c>
@@ -5200,7 +5202,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>652</v>
       </c>
@@ -5211,7 +5213,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>654</v>
       </c>
@@ -5222,7 +5224,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>656</v>
       </c>
@@ -5233,7 +5235,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>657</v>
       </c>
@@ -5244,7 +5246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>660</v>
       </c>
@@ -5255,7 +5257,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>661</v>
       </c>
@@ -5266,7 +5268,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>662</v>
       </c>
@@ -5277,7 +5279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>663</v>
       </c>
@@ -5288,7 +5290,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>664</v>
       </c>
@@ -5299,7 +5301,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>667</v>
       </c>
@@ -5310,7 +5312,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>669</v>
       </c>
@@ -5321,7 +5323,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>671</v>
       </c>
@@ -5332,7 +5334,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>672</v>
       </c>
@@ -5343,7 +5345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>673</v>
       </c>
@@ -5351,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>675</v>
       </c>
@@ -5362,7 +5364,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>676</v>
       </c>
@@ -5373,7 +5375,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>677</v>
       </c>
@@ -5384,7 +5386,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>678</v>
       </c>
@@ -5395,7 +5397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>680</v>
       </c>
@@ -5406,7 +5408,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>681</v>
       </c>
@@ -5417,7 +5419,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>682</v>
       </c>
@@ -5428,7 +5430,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>684</v>
       </c>
@@ -5439,7 +5441,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>685</v>
       </c>
@@ -5450,7 +5452,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>689</v>
       </c>
@@ -5461,7 +5463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>692</v>
       </c>
@@ -5472,7 +5474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>693</v>
       </c>
@@ -5483,7 +5485,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>694</v>
       </c>
@@ -5494,7 +5496,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>695</v>
       </c>
@@ -5505,7 +5507,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>697</v>
       </c>
@@ -5516,7 +5518,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>698</v>
       </c>
@@ -5527,7 +5529,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>700</v>
       </c>
@@ -5539,7 +5541,7 @@
       </c>
       <c r="D429" s="6"/>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>704</v>
       </c>
@@ -5550,7 +5552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>706</v>
       </c>
@@ -5561,7 +5563,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>709</v>
       </c>
@@ -5572,7 +5574,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>710</v>
       </c>
@@ -5583,7 +5585,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>711</v>
       </c>
@@ -5594,7 +5596,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>712</v>
       </c>
@@ -5605,7 +5607,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>713</v>
       </c>
@@ -5616,7 +5618,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>714</v>
       </c>
@@ -5627,7 +5629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>716</v>
       </c>
@@ -5638,7 +5640,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>717</v>
       </c>
@@ -5649,7 +5651,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>718</v>
       </c>
@@ -5660,7 +5662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>720</v>
       </c>
@@ -5671,7 +5673,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>721</v>
       </c>
@@ -5682,7 +5684,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>722</v>
       </c>
@@ -5693,7 +5695,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>724</v>
       </c>
@@ -5704,7 +5706,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>726</v>
       </c>
@@ -5715,7 +5717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>727</v>
       </c>
@@ -5726,7 +5728,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>728</v>
       </c>
@@ -5737,7 +5739,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>730</v>
       </c>
@@ -5748,7 +5750,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>732</v>
       </c>
@@ -5759,7 +5761,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>733</v>
       </c>
@@ -5770,7 +5772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>737</v>
       </c>
@@ -5781,7 +5783,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>738</v>
       </c>
@@ -5792,7 +5794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>740</v>
       </c>
@@ -5803,7 +5805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>741</v>
       </c>
@@ -5814,7 +5816,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>742</v>
       </c>
@@ -5825,7 +5827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>745</v>
       </c>
@@ -5836,7 +5838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>747</v>
       </c>
@@ -5847,7 +5849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>748</v>
       </c>
@@ -5858,7 +5860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>749</v>
       </c>
@@ -5869,7 +5871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>752</v>
       </c>
@@ -5880,7 +5882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>753</v>
       </c>
@@ -5891,7 +5893,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>754</v>
       </c>
@@ -5902,7 +5904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>755</v>
       </c>
@@ -5913,7 +5915,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>756</v>
       </c>
@@ -5924,7 +5926,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>757</v>
       </c>
@@ -5935,7 +5937,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>758</v>
       </c>
@@ -5946,7 +5948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>759</v>
       </c>
@@ -5957,7 +5959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>760</v>
       </c>
@@ -5968,7 +5970,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>762</v>
       </c>
@@ -5979,7 +5981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>763</v>
       </c>
@@ -5990,7 +5992,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>765</v>
       </c>
@@ -6001,7 +6003,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>766</v>
       </c>
@@ -6012,7 +6014,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>767</v>
       </c>
@@ -6023,7 +6025,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>768</v>
       </c>
@@ -6034,7 +6036,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>769</v>
       </c>
@@ -6045,7 +6047,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>771</v>
       </c>
@@ -6056,7 +6058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>772</v>
       </c>
@@ -6067,7 +6069,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>774</v>
       </c>
@@ -6078,7 +6080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>776</v>
       </c>
@@ -6089,7 +6091,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>777</v>
       </c>
@@ -6100,7 +6102,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>778</v>
       </c>
@@ -6111,7 +6113,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>779</v>
       </c>
@@ -6122,7 +6124,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>784</v>
       </c>
@@ -6133,7 +6135,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>785</v>
       </c>
@@ -6144,7 +6146,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>787</v>
       </c>
@@ -6155,7 +6157,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>788</v>
       </c>
@@ -6166,7 +6168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>789</v>
       </c>
@@ -6177,7 +6179,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>792</v>
       </c>
@@ -6188,7 +6190,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>793</v>
       </c>
@@ -6199,7 +6201,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>794</v>
       </c>
@@ -6210,7 +6212,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>796</v>
       </c>
@@ -6221,7 +6223,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>797</v>
       </c>
@@ -6232,7 +6234,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>798</v>
       </c>
@@ -6243,7 +6245,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>800</v>
       </c>
@@ -6254,7 +6256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>801</v>
       </c>
@@ -6265,7 +6267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>802</v>
       </c>
@@ -6276,7 +6278,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>803</v>
       </c>
@@ -6287,7 +6289,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>805</v>
       </c>
@@ -6298,7 +6300,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>806</v>
       </c>
@@ -6309,7 +6311,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>807</v>
       </c>
@@ -6320,7 +6322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>808</v>
       </c>
@@ -6331,7 +6333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>809</v>
       </c>
@@ -6342,7 +6344,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>810</v>
       </c>
@@ -6353,7 +6355,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>811</v>
       </c>
@@ -6364,7 +6366,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>812</v>
       </c>
@@ -6375,7 +6377,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>813</v>
       </c>
@@ -6386,7 +6388,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>815</v>
       </c>
@@ -6397,7 +6399,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>816</v>
       </c>
@@ -6408,7 +6410,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>821</v>
       </c>
@@ -6419,7 +6421,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>822</v>
       </c>
@@ -6430,7 +6432,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>823</v>
       </c>
@@ -6441,7 +6443,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>824</v>
       </c>
@@ -6452,7 +6454,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>825</v>
       </c>
@@ -6463,7 +6465,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>826</v>
       </c>
@@ -6474,7 +6476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>827</v>
       </c>
@@ -6485,7 +6487,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>828</v>
       </c>
@@ -6496,7 +6498,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>831</v>
       </c>
@@ -6507,7 +6509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>837</v>
       </c>
@@ -6518,7 +6520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>838</v>
       </c>
@@ -6529,7 +6531,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>839</v>
       </c>
@@ -6540,7 +6542,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>840</v>
       </c>
@@ -6551,7 +6553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>841</v>
       </c>
@@ -6562,7 +6564,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>844</v>
       </c>
@@ -6573,7 +6575,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>847</v>
       </c>
@@ -6584,7 +6586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>848</v>
       </c>
@@ -6595,7 +6597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>849</v>
       </c>
@@ -6606,7 +6608,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>850</v>
       </c>
@@ -6617,7 +6619,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>851</v>
       </c>
@@ -6628,7 +6630,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>852</v>
       </c>
@@ -6639,7 +6641,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>853</v>
       </c>
@@ -6650,7 +6652,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>854</v>
       </c>
@@ -6661,7 +6663,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>855</v>
       </c>
@@ -6672,7 +6674,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>856</v>
       </c>
@@ -6683,7 +6685,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>858</v>
       </c>
@@ -6694,7 +6696,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>859</v>
       </c>
@@ -6705,7 +6707,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>860</v>
       </c>
@@ -6716,7 +6718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>861</v>
       </c>
@@ -6727,7 +6729,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>862</v>
       </c>
@@ -6738,7 +6740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>863</v>
       </c>
@@ -6749,7 +6751,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>864</v>
       </c>
@@ -6760,7 +6762,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>865</v>
       </c>
@@ -6771,7 +6773,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>866</v>
       </c>
@@ -6782,7 +6784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>867</v>
       </c>
@@ -6793,7 +6795,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>868</v>
       </c>
@@ -6804,7 +6806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>869</v>
       </c>
@@ -6815,7 +6817,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>870</v>
       </c>
@@ -6826,7 +6828,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>871</v>
       </c>
@@ -6837,7 +6839,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>873</v>
       </c>
@@ -6848,7 +6850,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>874</v>
       </c>
@@ -6859,7 +6861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>875</v>
       </c>
@@ -6870,7 +6872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>876</v>
       </c>
@@ -6881,7 +6883,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>877</v>
       </c>
@@ -6892,7 +6894,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>878</v>
       </c>
@@ -6903,7 +6905,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>879</v>
       </c>
@@ -6914,7 +6916,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>881</v>
       </c>
@@ -6925,7 +6927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>882</v>
       </c>
@@ -6936,7 +6938,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>883</v>
       </c>
@@ -6947,7 +6949,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>885</v>
       </c>
@@ -6958,7 +6960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>886</v>
       </c>
@@ -6966,7 +6968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>892</v>
       </c>
@@ -6977,7 +6979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>893</v>
       </c>
@@ -6988,7 +6990,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>894</v>
       </c>
@@ -6999,7 +7001,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>896</v>
       </c>
@@ -7010,7 +7012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>897</v>
       </c>
@@ -7021,7 +7023,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>898</v>
       </c>
@@ -7032,7 +7034,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>899</v>
       </c>
@@ -7043,7 +7045,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>900</v>
       </c>
@@ -7054,7 +7056,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>901</v>
       </c>
@@ -7065,7 +7067,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>904</v>
       </c>
@@ -7076,7 +7078,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>906</v>
       </c>
@@ -7087,7 +7089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>907</v>
       </c>
@@ -7098,7 +7100,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>908</v>
       </c>
@@ -7109,7 +7111,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>910</v>
       </c>
@@ -7120,7 +7122,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>911</v>
       </c>
@@ -7131,7 +7133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>912</v>
       </c>
@@ -7142,7 +7144,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>914</v>
       </c>
@@ -7153,7 +7155,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>915</v>
       </c>
@@ -7164,7 +7166,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>916</v>
       </c>
@@ -7175,7 +7177,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>917</v>
       </c>
@@ -7186,7 +7188,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>918</v>
       </c>
@@ -7197,7 +7199,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>919</v>
       </c>
@@ -7208,7 +7210,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>920</v>
       </c>
@@ -7219,7 +7221,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>923</v>
       </c>
@@ -7230,7 +7232,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>924</v>
       </c>
@@ -7241,7 +7243,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>926</v>
       </c>
@@ -7252,7 +7254,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>927</v>
       </c>
@@ -7263,7 +7265,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>928</v>
       </c>
@@ -7274,7 +7276,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>931</v>
       </c>
@@ -7285,7 +7287,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>932</v>
       </c>
@@ -7296,7 +7298,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>933</v>
       </c>
@@ -7307,7 +7309,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>934</v>
       </c>
@@ -7318,7 +7320,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>936</v>
       </c>
@@ -7329,7 +7331,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>937</v>
       </c>
@@ -7340,7 +7342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>938</v>
       </c>
@@ -7351,7 +7353,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>939</v>
       </c>
@@ -7362,7 +7364,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>942</v>
       </c>
@@ -7373,7 +7375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>944</v>
       </c>
@@ -7384,7 +7386,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>948</v>
       </c>
@@ -7395,7 +7397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>949</v>
       </c>
@@ -7406,7 +7408,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>951</v>
       </c>
@@ -7417,7 +7419,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>952</v>
       </c>
@@ -7425,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>954</v>
       </c>
@@ -7436,7 +7438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>955</v>
       </c>
@@ -7447,7 +7449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>956</v>
       </c>
@@ -7458,7 +7460,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>958</v>
       </c>
@@ -7469,7 +7471,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>959</v>
       </c>
@@ -7480,7 +7482,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>960</v>
       </c>
@@ -7491,7 +7493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>961</v>
       </c>
@@ -7502,7 +7504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>962</v>
       </c>
@@ -7513,7 +7515,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>963</v>
       </c>
@@ -7524,7 +7526,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>966</v>
       </c>
@@ -7535,7 +7537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>968</v>
       </c>
@@ -7546,7 +7548,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>969</v>
       </c>
@@ -7557,7 +7559,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>970</v>
       </c>
@@ -7568,7 +7570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>971</v>
       </c>
@@ -7579,7 +7581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>972</v>
       </c>
@@ -7590,7 +7592,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>975</v>
       </c>
@@ -7601,7 +7603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>976</v>
       </c>
@@ -7612,7 +7614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>978</v>
       </c>
@@ -7623,7 +7625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>979</v>
       </c>
@@ -7634,7 +7636,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>981</v>
       </c>
@@ -7645,7 +7647,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>983</v>
       </c>
@@ -7656,7 +7658,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>985</v>
       </c>
@@ -7667,7 +7669,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>987</v>
       </c>
@@ -7678,7 +7680,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>989</v>
       </c>
@@ -7689,7 +7691,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>990</v>
       </c>
@@ -7700,7 +7702,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>992</v>
       </c>
@@ -7711,7 +7713,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>993</v>
       </c>
@@ -7722,7 +7724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>994</v>
       </c>
@@ -7733,7 +7735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>995</v>
       </c>
@@ -7744,7 +7746,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>996</v>
       </c>
@@ -7755,7 +7757,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>999</v>
       </c>
@@ -7766,7 +7768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>1000</v>
       </c>
@@ -7777,7 +7779,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>1001</v>
       </c>
@@ -7788,7 +7790,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>1002</v>
       </c>
@@ -7799,7 +7801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>1003</v>
       </c>
@@ -7810,7 +7812,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>1004</v>
       </c>
@@ -7821,7 +7823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>1005</v>
       </c>
@@ -7832,7 +7834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>1006</v>
       </c>
@@ -7843,7 +7845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>1007</v>
       </c>
@@ -7854,7 +7856,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>1010</v>
       </c>
@@ -7865,7 +7867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>1011</v>
       </c>
@@ -7876,7 +7878,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>1013</v>
       </c>
@@ -7887,7 +7889,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>1014</v>
       </c>
@@ -7895,7 +7897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>1016</v>
       </c>
@@ -7906,7 +7908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>1017</v>
       </c>
@@ -7917,7 +7919,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>1019</v>
       </c>
@@ -7928,7 +7930,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>1021</v>
       </c>
@@ -7939,7 +7941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>1023</v>
       </c>
@@ -7950,7 +7952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>1024</v>
       </c>
@@ -7961,7 +7963,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>1025</v>
       </c>
@@ -7972,7 +7974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>1027</v>
       </c>
@@ -7983,7 +7985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>1030</v>
       </c>
@@ -7994,7 +7996,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>1031</v>
       </c>
@@ -8005,7 +8007,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>1032</v>
       </c>
@@ -8016,7 +8018,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>1034</v>
       </c>
@@ -8027,7 +8029,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>1036</v>
       </c>
@@ -8038,7 +8040,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>1037</v>
       </c>
@@ -8049,7 +8051,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>1039</v>
       </c>
@@ -8060,7 +8062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>1040</v>
       </c>
@@ -8071,7 +8073,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>1041</v>
       </c>
@@ -8082,7 +8084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>1042</v>
       </c>
@@ -8093,7 +8095,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>1046</v>
       </c>
@@ -8104,7 +8106,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>1048</v>
       </c>
@@ -8115,7 +8117,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>1049</v>
       </c>
@@ -8126,7 +8128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>1051</v>
       </c>
@@ -8137,7 +8139,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>1052</v>
       </c>
@@ -8148,7 +8150,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>1056</v>
       </c>
@@ -8159,7 +8161,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>1059</v>
       </c>
@@ -8170,7 +8172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>1061</v>
       </c>
@@ -8181,7 +8183,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>1062</v>
       </c>
@@ -8192,7 +8194,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>1065</v>
       </c>
@@ -8203,7 +8205,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>1066</v>
       </c>
@@ -8214,7 +8216,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>1072</v>
       </c>
@@ -8225,7 +8227,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>1073</v>
       </c>
@@ -8236,7 +8238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>1076</v>
       </c>
@@ -8247,7 +8249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>1077</v>
       </c>
@@ -8258,7 +8260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>1080</v>
       </c>
@@ -8269,7 +8271,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>1081</v>
       </c>
@@ -8280,7 +8282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>1083</v>
       </c>
@@ -8291,7 +8293,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>1085</v>
       </c>
@@ -8302,7 +8304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>1087</v>
       </c>
@@ -8313,7 +8315,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>1088</v>
       </c>
@@ -8324,7 +8326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>1089</v>
       </c>
@@ -8335,7 +8337,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>1090</v>
       </c>
@@ -8346,7 +8348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>1093</v>
       </c>
@@ -8357,7 +8359,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>1094</v>
       </c>
@@ -8368,7 +8370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>1095</v>
       </c>
@@ -8379,7 +8381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>1096</v>
       </c>
@@ -8390,7 +8392,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>1097</v>
       </c>
@@ -8401,7 +8403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>1098</v>
       </c>
@@ -8412,7 +8414,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>1100</v>
       </c>
@@ -8423,7 +8425,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>1101</v>
       </c>
@@ -8434,7 +8436,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>1110</v>
       </c>
@@ -8445,7 +8447,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>1112</v>
       </c>
@@ -8456,7 +8458,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>1113</v>
       </c>
@@ -8467,7 +8469,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>1117</v>
       </c>
@@ -8478,7 +8480,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>1118</v>
       </c>
@@ -8489,7 +8491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>1119</v>
       </c>
@@ -8500,7 +8502,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>1120</v>
       </c>
@@ -8511,7 +8513,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>1121</v>
       </c>
@@ -8522,7 +8524,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>1123</v>
       </c>
@@ -8533,7 +8535,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>1124</v>
       </c>
@@ -8544,7 +8546,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>1125</v>
       </c>
@@ -8555,7 +8557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>1128</v>
       </c>
@@ -8566,7 +8568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>1130</v>
       </c>
@@ -8577,7 +8579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>1131</v>
       </c>
@@ -8588,7 +8590,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>1132</v>
       </c>
@@ -8599,7 +8601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>1134</v>
       </c>
@@ -8610,7 +8612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>1135</v>
       </c>
@@ -8621,7 +8623,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>1136</v>
       </c>
@@ -8632,7 +8634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>1142</v>
       </c>
@@ -8643,7 +8645,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>1144</v>
       </c>
@@ -8654,7 +8656,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>1145</v>
       </c>
@@ -8665,7 +8667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>1147</v>
       </c>
@@ -8676,7 +8678,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>1148</v>
       </c>
@@ -8687,7 +8689,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>1152</v>
       </c>
@@ -8698,7 +8700,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>1153</v>
       </c>
@@ -8709,7 +8711,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>1154</v>
       </c>
@@ -8720,7 +8722,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>1156</v>
       </c>
@@ -8731,7 +8733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>1157</v>
       </c>
@@ -8742,7 +8744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>1159</v>
       </c>
@@ -8753,7 +8755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>1160</v>
       </c>
@@ -8764,7 +8766,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>1163</v>
       </c>
@@ -8775,7 +8777,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>1165</v>
       </c>
@@ -8786,7 +8788,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>1166</v>
       </c>
@@ -8797,7 +8799,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>1167</v>
       </c>
@@ -8808,7 +8810,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>1168</v>
       </c>
@@ -8819,7 +8821,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>1169</v>
       </c>
@@ -8830,7 +8832,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>1170</v>
       </c>
@@ -8841,7 +8843,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>1171</v>
       </c>
@@ -8852,7 +8854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>1172</v>
       </c>
@@ -8863,7 +8865,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>1173</v>
       </c>
@@ -8874,7 +8876,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>1174</v>
       </c>
@@ -8885,7 +8887,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>1175</v>
       </c>
@@ -8896,7 +8898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>1176</v>
       </c>
@@ -8907,7 +8909,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>1179</v>
       </c>
@@ -8918,7 +8920,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>1180</v>
       </c>
@@ -8929,7 +8931,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>1182</v>
       </c>
@@ -8940,7 +8942,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>1184</v>
       </c>
@@ -8951,7 +8953,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>1186</v>
       </c>
@@ -8962,7 +8964,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>1187</v>
       </c>
@@ -8973,7 +8975,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>1194</v>
       </c>
@@ -8984,7 +8986,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>1196</v>
       </c>
@@ -8995,7 +8997,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>1197</v>
       </c>
@@ -9006,7 +9008,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>1198</v>
       </c>
@@ -9017,7 +9019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>1200</v>
       </c>
@@ -9028,7 +9030,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>1201</v>
       </c>
@@ -9039,7 +9041,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>1202</v>
       </c>
@@ -9050,7 +9052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>1205</v>
       </c>
@@ -9061,7 +9063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>1206</v>
       </c>
@@ -9072,7 +9074,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>1208</v>
       </c>
@@ -9083,7 +9085,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>1210</v>
       </c>
@@ -9094,7 +9096,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>1211</v>
       </c>
@@ -9105,7 +9107,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>1213</v>
       </c>
@@ -9116,7 +9118,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>1216</v>
       </c>
@@ -9127,7 +9129,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>1217</v>
       </c>
@@ -9138,7 +9140,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>1218</v>
       </c>
@@ -9149,7 +9151,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>1219</v>
       </c>
@@ -9160,7 +9162,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>1220</v>
       </c>
@@ -9171,7 +9173,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>1221</v>
       </c>
@@ -9182,7 +9184,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>1222</v>
       </c>
@@ -9193,7 +9195,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>1223</v>
       </c>
@@ -9204,7 +9206,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>1225</v>
       </c>
@@ -9215,7 +9217,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>1226</v>
       </c>
@@ -9226,7 +9228,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>1228</v>
       </c>
@@ -9237,7 +9239,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>1229</v>
       </c>
@@ -9248,7 +9250,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>1231</v>
       </c>
@@ -9259,7 +9261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>1232</v>
       </c>
@@ -9270,7 +9272,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>1235</v>
       </c>
@@ -9281,7 +9283,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>1236</v>
       </c>
@@ -9292,7 +9294,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>1238</v>
       </c>
@@ -9303,7 +9305,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>1239</v>
       </c>
@@ -9314,7 +9316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>1240</v>
       </c>
@@ -9325,7 +9327,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>1242</v>
       </c>
@@ -9336,7 +9338,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>1243</v>
       </c>
@@ -9347,7 +9349,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>1244</v>
       </c>
@@ -9358,7 +9360,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>1245</v>
       </c>
@@ -9369,7 +9371,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>1249</v>
       </c>
@@ -9380,7 +9382,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>1250</v>
       </c>
@@ -9391,7 +9393,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>1251</v>
       </c>
@@ -9402,7 +9404,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>1253</v>
       </c>
@@ -9413,7 +9415,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>1254</v>
       </c>
@@ -9424,7 +9426,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>1255</v>
       </c>
@@ -9435,7 +9437,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>1256</v>
       </c>
@@ -9446,7 +9448,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>1257</v>
       </c>
@@ -9457,7 +9459,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>1258</v>
       </c>
@@ -9468,7 +9470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>1262</v>
       </c>
@@ -9479,7 +9481,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>1263</v>
       </c>
@@ -9490,7 +9492,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>1265</v>
       </c>
@@ -9501,7 +9503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>1268</v>
       </c>
@@ -9512,7 +9514,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>1269</v>
       </c>
@@ -9523,7 +9525,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>1270</v>
       </c>
@@ -9534,7 +9536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>1271</v>
       </c>
@@ -9542,7 +9544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>1273</v>
       </c>
@@ -9553,7 +9555,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>1275</v>
       </c>
@@ -9564,7 +9566,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>1276</v>
       </c>
@@ -9575,7 +9577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>1277</v>
       </c>
@@ -9586,7 +9588,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>1278</v>
       </c>
@@ -9597,7 +9599,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>1281</v>
       </c>
@@ -9608,7 +9610,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>1282</v>
       </c>
@@ -9619,7 +9621,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
         <v>1283</v>
       </c>
@@ -9630,7 +9632,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>1284</v>
       </c>
@@ -9641,7 +9643,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>1286</v>
       </c>
@@ -9652,7 +9654,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>1287</v>
       </c>
@@ -9663,7 +9665,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>1289</v>
       </c>
@@ -9674,7 +9676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>1291</v>
       </c>
@@ -9685,7 +9687,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
         <v>1292</v>
       </c>
@@ -9696,7 +9698,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>1294</v>
       </c>
@@ -9707,7 +9709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>1296</v>
       </c>
@@ -9718,7 +9720,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>1299</v>
       </c>
@@ -9729,7 +9731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>1300</v>
       </c>
@@ -9740,7 +9742,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>1301</v>
       </c>
@@ -9751,7 +9753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>1302</v>
       </c>
@@ -9762,7 +9764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
         <v>1305</v>
       </c>
@@ -9773,7 +9775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>1308</v>
       </c>
@@ -9784,7 +9786,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
         <v>1309</v>
       </c>
@@ -9795,7 +9797,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
         <v>1310</v>
       </c>
@@ -9806,7 +9808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
         <v>1311</v>
       </c>
@@ -9817,7 +9819,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
         <v>1312</v>
       </c>
@@ -9828,7 +9830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
         <v>1317</v>
       </c>
@@ -9839,7 +9841,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
         <v>1319</v>
       </c>
@@ -9850,7 +9852,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
         <v>1320</v>
       </c>
@@ -9861,7 +9863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
         <v>1322</v>
       </c>
@@ -9872,7 +9874,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>1323</v>
       </c>
@@ -9883,7 +9885,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
         <v>1324</v>
       </c>
@@ -9894,7 +9896,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>1325</v>
       </c>
@@ -9905,7 +9907,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>1326</v>
       </c>
@@ -9916,7 +9918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>1327</v>
       </c>
@@ -9927,7 +9929,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
         <v>1328</v>
       </c>
@@ -9938,7 +9940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>1329</v>
       </c>
@@ -9949,7 +9951,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
         <v>1330</v>
       </c>
@@ -9957,7 +9959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
         <v>1335</v>
       </c>
@@ -9968,7 +9970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
         <v>1337</v>
       </c>
@@ -9979,7 +9981,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>1339</v>
       </c>
@@ -9990,7 +9992,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
         <v>1340</v>
       </c>
@@ -10001,7 +10003,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
         <v>1341</v>
       </c>
@@ -10012,7 +10014,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
         <v>1342</v>
       </c>
@@ -10023,7 +10025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
         <v>1344</v>
       </c>
@@ -10034,7 +10036,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
         <v>1345</v>
       </c>
@@ -10045,7 +10047,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
         <v>1346</v>
       </c>
@@ -10056,7 +10058,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
         <v>1347</v>
       </c>
@@ -10067,7 +10069,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
         <v>1348</v>
       </c>
@@ -10078,7 +10080,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
         <v>1349</v>
       </c>
@@ -10089,7 +10091,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
         <v>1350</v>
       </c>
@@ -10100,7 +10102,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
         <v>1352</v>
       </c>
@@ -10111,7 +10113,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
         <v>1353</v>
       </c>
@@ -10122,7 +10124,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
         <v>1355</v>
       </c>
@@ -10133,7 +10135,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
         <v>1356</v>
       </c>
@@ -10144,7 +10146,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
         <v>1358</v>
       </c>
@@ -10155,7 +10157,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
         <v>1359</v>
       </c>
@@ -10166,7 +10168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
         <v>1360</v>
       </c>
@@ -10177,7 +10179,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
         <v>1365</v>
       </c>
@@ -10188,7 +10190,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
         <v>1366</v>
       </c>
@@ -10199,7 +10201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
         <v>1367</v>
       </c>
@@ -10210,7 +10212,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
         <v>1370</v>
       </c>
@@ -10221,7 +10223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
         <v>1372</v>
       </c>
@@ -10232,7 +10234,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
         <v>1373</v>
       </c>
@@ -10243,7 +10245,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
         <v>1374</v>
       </c>
@@ -10254,7 +10256,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
         <v>1375</v>
       </c>
@@ -10265,7 +10267,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
         <v>1377</v>
       </c>
@@ -10276,7 +10278,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
         <v>1378</v>
       </c>
@@ -10287,7 +10289,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
         <v>1379</v>
       </c>
@@ -10298,7 +10300,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
         <v>1380</v>
       </c>
@@ -10309,7 +10311,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
         <v>1381</v>
       </c>
@@ -10320,7 +10322,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
         <v>1384</v>
       </c>
@@ -10331,7 +10333,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
         <v>1386</v>
       </c>
@@ -10342,7 +10344,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
         <v>1388</v>
       </c>
@@ -10353,7 +10355,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
         <v>1390</v>
       </c>
@@ -10364,7 +10366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
         <v>1391</v>
       </c>
@@ -10375,7 +10377,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
         <v>1392</v>
       </c>
@@ -10386,7 +10388,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
         <v>1393</v>
       </c>
@@ -10397,7 +10399,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
         <v>1394</v>
       </c>
@@ -10408,7 +10410,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
         <v>1395</v>
       </c>
@@ -10419,7 +10421,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
         <v>1396</v>
       </c>
@@ -10430,7 +10432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
         <v>1398</v>
       </c>
@@ -10441,7 +10443,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
         <v>1399</v>
       </c>
@@ -10452,7 +10454,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
         <v>1402</v>
       </c>
@@ -10463,7 +10465,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
         <v>1403</v>
       </c>
@@ -10474,7 +10476,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
         <v>1405</v>
       </c>
@@ -10485,7 +10487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
         <v>1408</v>
       </c>
@@ -10496,7 +10498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
         <v>1410</v>
       </c>
@@ -10507,7 +10509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
         <v>1411</v>
       </c>
@@ -10518,7 +10520,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
         <v>1413</v>
       </c>
@@ -10529,7 +10531,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
         <v>1414</v>
       </c>
@@ -10540,7 +10542,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
         <v>1417</v>
       </c>
@@ -10551,7 +10553,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
         <v>1419</v>
       </c>
@@ -10562,7 +10564,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
         <v>1420</v>
       </c>
@@ -10573,7 +10575,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
         <v>1423</v>
       </c>
@@ -10584,7 +10586,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
         <v>1424</v>
       </c>
@@ -10595,7 +10597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
         <v>1425</v>
       </c>
@@ -10606,7 +10608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
         <v>1431</v>
       </c>
@@ -10617,7 +10619,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
         <v>1432</v>
       </c>
@@ -10628,7 +10630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
         <v>1435</v>
       </c>
@@ -10639,7 +10641,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
         <v>1436</v>
       </c>
@@ -10650,7 +10652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
         <v>1438</v>
       </c>
@@ -10661,7 +10663,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
         <v>1440</v>
       </c>
@@ -10672,7 +10674,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
         <v>1441</v>
       </c>
@@ -10683,7 +10685,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
         <v>1442</v>
       </c>
@@ -10694,7 +10696,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
         <v>1443</v>
       </c>
@@ -10705,7 +10707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
         <v>1444</v>
       </c>
@@ -10716,7 +10718,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
         <v>1446</v>
       </c>
@@ -10727,7 +10729,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
         <v>1448</v>
       </c>
@@ -10738,7 +10740,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
         <v>1449</v>
       </c>
@@ -10749,7 +10751,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
         <v>1450</v>
       </c>
@@ -10760,7 +10762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
         <v>1452</v>
       </c>
@@ -10771,7 +10773,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
         <v>1454</v>
       </c>
@@ -10782,7 +10784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
         <v>1457</v>
       </c>
@@ -10793,7 +10795,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
         <v>1459</v>
       </c>
@@ -10804,7 +10806,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A910" s="1">
         <v>1460</v>
       </c>
@@ -10815,7 +10817,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="911" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A911" s="1">
         <v>1461</v>
       </c>
@@ -10826,7 +10828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
         <v>1463</v>
       </c>
@@ -10837,7 +10839,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
         <v>1467</v>
       </c>
@@ -10848,7 +10850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
         <v>1468</v>
       </c>
@@ -10859,7 +10861,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
         <v>1469</v>
       </c>
@@ -10870,7 +10872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A916" s="1">
         <v>1471</v>
       </c>
@@ -10881,7 +10883,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
         <v>1472</v>
       </c>
@@ -10892,7 +10894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
         <v>1473</v>
       </c>
@@ -10903,7 +10905,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A919" s="1">
         <v>1474</v>
       </c>
@@ -10914,7 +10916,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
         <v>1475</v>
       </c>
@@ -10925,7 +10927,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
         <v>1476</v>
       </c>
@@ -10936,7 +10938,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="922" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
         <v>1477</v>
       </c>
@@ -10947,7 +10949,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
         <v>1479</v>
       </c>
@@ -10958,7 +10960,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
         <v>1480</v>
       </c>
@@ -10969,7 +10971,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A925" s="1">
         <v>1482</v>
       </c>
@@ -10980,7 +10982,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A926" s="1">
         <v>1483</v>
       </c>
@@ -10991,7 +10993,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="927" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
         <v>1488</v>
       </c>
@@ -11002,7 +11004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A928" s="1">
         <v>1491</v>
       </c>
@@ -11013,7 +11015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="929" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
         <v>1492</v>
       </c>
@@ -11024,7 +11026,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="930" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
         <v>1494</v>
       </c>
@@ -11035,7 +11037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="931" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
         <v>1496</v>
       </c>
@@ -11046,7 +11048,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="932" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A932" s="1">
         <v>1499</v>
       </c>
@@ -11057,7 +11059,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="933" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A933" s="1">
         <v>1500</v>
       </c>
@@ -11068,7 +11070,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="934" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A934" s="1">
         <v>1501</v>
       </c>
@@ -11079,7 +11081,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="935" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A935" s="1">
         <v>1502</v>
       </c>
@@ -11090,7 +11092,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="936" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A936" s="1">
         <v>1504</v>
       </c>
@@ -11101,7 +11103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="937" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A937" s="1">
         <v>1505</v>
       </c>
@@ -11112,7 +11114,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="938" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A938" s="1">
         <v>1506</v>
       </c>
@@ -11123,7 +11125,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="939" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A939" s="1">
         <v>1507</v>
       </c>
@@ -11134,7 +11136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="940" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A940" s="1">
         <v>1508</v>
       </c>
@@ -11145,7 +11147,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="941" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A941" s="1">
         <v>1509</v>
       </c>
@@ -11156,7 +11158,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="942" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A942" s="1">
         <v>1511</v>
       </c>
@@ -11167,7 +11169,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="943" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A943" s="1">
         <v>1512</v>
       </c>
@@ -11178,7 +11180,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="944" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A944" s="1">
         <v>1514</v>
       </c>
@@ -11189,7 +11191,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="945" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A945" s="1">
         <v>1515</v>
       </c>
@@ -11200,7 +11202,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="946" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A946" s="1">
         <v>1516</v>
       </c>
@@ -11211,7 +11213,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="947" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A947" s="1">
         <v>1518</v>
       </c>
@@ -11222,7 +11224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="948" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A948" s="1">
         <v>1519</v>
       </c>
@@ -11233,7 +11235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="949" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A949" s="1">
         <v>1520</v>
       </c>
@@ -11244,7 +11246,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="950" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A950" s="1">
         <v>1521</v>
       </c>
@@ -11255,7 +11257,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="951" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A951" s="1">
         <v>1523</v>
       </c>
@@ -11266,7 +11268,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="952" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A952" s="1">
         <v>1524</v>
       </c>
@@ -11277,7 +11279,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="953" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A953" s="1">
         <v>1525</v>
       </c>
@@ -11288,7 +11290,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="954" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A954" s="1">
         <v>1527</v>
       </c>
@@ -11299,7 +11301,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="955" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A955" s="1">
         <v>1529</v>
       </c>
@@ -11310,7 +11312,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="956" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A956" s="1">
         <v>1530</v>
       </c>
@@ -11321,7 +11323,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="957" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
         <v>1531</v>
       </c>
@@ -11332,7 +11334,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="958" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A958" s="1">
         <v>1532</v>
       </c>
@@ -11343,7 +11345,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="959" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A959" s="1">
         <v>1536</v>
       </c>
@@ -11354,7 +11356,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="960" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
         <v>1538</v>
       </c>
@@ -11365,7 +11367,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="961" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A961" s="1">
         <v>1539</v>
       </c>
@@ -11376,7 +11378,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A962" s="1">
         <v>1541</v>
       </c>
@@ -11387,7 +11389,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A963" s="1">
         <v>1543</v>
       </c>
@@ -11398,7 +11400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A964" s="1">
         <v>1544</v>
       </c>
@@ -11409,7 +11411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A965" s="1">
         <v>1545</v>
       </c>
@@ -11420,7 +11422,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="966" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A966" s="1">
         <v>1547</v>
       </c>
@@ -11431,7 +11433,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="967" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A967" s="1">
         <v>1548</v>
       </c>
@@ -11442,7 +11444,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="968" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A968" s="1">
         <v>1549</v>
       </c>
@@ -11453,7 +11455,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="969" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A969" s="1">
         <v>1550</v>
       </c>
@@ -11464,7 +11466,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A970" s="1">
         <v>1551</v>
       </c>
@@ -11475,7 +11477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="971" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A971" s="1">
         <v>1552</v>
       </c>
@@ -11486,7 +11488,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="972" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A972" s="1">
         <v>1554</v>
       </c>
@@ -11497,7 +11499,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="973" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A973" s="1">
         <v>1555</v>
       </c>
@@ -11508,7 +11510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A974" s="1">
         <v>1556</v>
       </c>
@@ -11519,7 +11521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="975" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A975" s="1">
         <v>1557</v>
       </c>
@@ -11530,7 +11532,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="976" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A976" s="1">
         <v>1559</v>
       </c>
@@ -11541,7 +11543,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="977" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A977" s="1">
         <v>1561</v>
       </c>
@@ -11552,7 +11554,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="978" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
         <v>1562</v>
       </c>
@@ -11563,7 +11565,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="979" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A979" s="1">
         <v>1563</v>
       </c>
@@ -11574,7 +11576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="980" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A980" s="1">
         <v>1566</v>
       </c>
@@ -11585,7 +11587,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="981" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A981" s="1">
         <v>1568</v>
       </c>
@@ -11596,7 +11598,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="982" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A982" s="1">
         <v>1569</v>
       </c>
@@ -11607,7 +11609,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="983" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A983" s="1">
         <v>1570</v>
       </c>
@@ -11618,7 +11620,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="984" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A984" s="1">
         <v>1571</v>
       </c>
@@ -11629,7 +11631,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="985" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A985" s="1">
         <v>1572</v>
       </c>
@@ -11640,7 +11642,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="986" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A986" s="1">
         <v>1574</v>
       </c>
@@ -11651,7 +11653,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="987" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A987" s="1">
         <v>1575</v>
       </c>
@@ -11662,7 +11664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="988" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A988" s="1">
         <v>1578</v>
       </c>
@@ -11673,7 +11675,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="989" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A989" s="1">
         <v>1581</v>
       </c>
@@ -11684,7 +11686,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="990" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A990" s="1">
         <v>1582</v>
       </c>
@@ -11695,7 +11697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="991" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A991" s="1">
         <v>1584</v>
       </c>

--- a/Tema 1 - RN/ClassificaçãoFolhas.xlsx
+++ b/Tema 1 - RN/ClassificaçãoFolhas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\GitHub\Neural-Network---Matlab\Tema 1 - RN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CB3230-7479-495A-B368-1B862D368FE0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3457227C-A0FB-46F6-9D52-ED63995B6D78}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="456" windowWidth="51204" windowHeight="26760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="129">
   <si>
     <t>Phildelphus</t>
   </si>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A968" workbookViewId="0">
+      <selection activeCell="F974" sqref="F974"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -990,6 +990,9 @@
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1174,7 +1177,9 @@
       <c r="B34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
@@ -2514,6 +2519,9 @@
       <c r="B156" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C156" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
@@ -4304,6 +4312,9 @@
       <c r="B319" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C319" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
@@ -4862,6 +4873,9 @@
       <c r="B370" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C370" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
@@ -5310,6 +5324,9 @@
       <c r="B411" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C411" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
@@ -6925,6 +6942,9 @@
       <c r="B558" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C558" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
@@ -7384,6 +7404,9 @@
       <c r="B600" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C600" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
@@ -7854,6 +7877,9 @@
       <c r="B643" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C643" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
@@ -9501,6 +9527,9 @@
       <c r="B793" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C793" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="1">
@@ -9914,6 +9943,9 @@
         <v>1330</v>
       </c>
       <c r="B831" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C831" s="2" t="s">
         <v>0</v>
       </c>
     </row>
